--- a/flightdata/Book1.xlsx
+++ b/flightdata/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac670cbf5dede34b/Desktop/5thSem/MLProject/flightdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{910437DE-1345-4C73-B3E9-A66BE1E2D320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{910437DE-1345-4C73-B3E9-A66BE1E2D320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7588CFC7-1973-4CD6-B98A-B17DA7EDAE32}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8900BFD4-B89D-4978-8FB6-1508FC176BAD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Model Type</t>
   </si>
@@ -82,6 +82,30 @@
   </si>
   <si>
     <t>Autoencoder</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Training time ~2.14 sec</t>
+  </si>
+  <si>
+    <t>Training time ~12 sec</t>
+  </si>
+  <si>
+    <t>Training time ~60 sec</t>
+  </si>
+  <si>
+    <t>Training time ~20.44 sec</t>
   </si>
 </sst>
 </file>
@@ -434,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D3F5AA-8872-4652-BDE2-1E95155AF8C0}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +471,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,8 +487,20 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -472,16 +508,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>5491.93</v>
+        <v>2615.2199999999998</v>
       </c>
       <c r="D2">
-        <v>3584.78</v>
+        <v>1891.02</v>
       </c>
       <c r="E2" s="1">
-        <v>0.30919999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.35460000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -489,16 +525,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>3416.35</v>
+        <v>1778.44</v>
       </c>
       <c r="D3">
-        <v>1684.42</v>
+        <v>1906.69</v>
       </c>
       <c r="E3" s="1">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -506,16 +542,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>3588.85</v>
+        <v>1618.65</v>
       </c>
       <c r="D4">
-        <v>2028.28</v>
+        <v>934.58</v>
       </c>
       <c r="E4" s="1">
         <v>0.14779999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -523,16 +559,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>4220.8900000000003</v>
+        <v>1771.26</v>
       </c>
       <c r="D5">
-        <v>2465.1799999999998</v>
+        <v>1070.46</v>
       </c>
       <c r="E5" s="1">
-        <v>0.17469999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -540,81 +576,96 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>3780.2</v>
+        <v>1674.67</v>
       </c>
       <c r="D6">
-        <v>2173.04</v>
+        <v>987.24</v>
       </c>
       <c r="E6" s="1">
-        <v>0.15870000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>0.86</v>
-      </c>
-      <c r="D7">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+      <c r="F7">
+        <v>0.74</v>
+      </c>
+      <c r="G7">
+        <v>0.04</v>
+      </c>
+      <c r="H7">
+        <v>0.08</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>0.91</v>
-      </c>
-      <c r="D8">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0.87</v>
+      </c>
+      <c r="G8">
+        <v>0.22</v>
+      </c>
+      <c r="H8">
+        <v>0.36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
-        <v>0.82</v>
-      </c>
-      <c r="D9">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+      <c r="F9">
+        <v>0.75</v>
+      </c>
+      <c r="G9">
+        <v>0.04</v>
+      </c>
+      <c r="H9">
+        <v>0.08</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
-        <v>0.85</v>
-      </c>
-      <c r="D10">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.09</v>
+      <c r="E10" s="1"/>
+      <c r="F10">
+        <v>0.66</v>
+      </c>
+      <c r="G10">
+        <v>0.04</v>
+      </c>
+      <c r="H10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
